--- a/Varationmap.xlsx
+++ b/Varationmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ander\Documents\GitHub\Thesis-Space\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Pre-Thesis VELUX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C520067D-314E-4DDD-8F35-2D1EE60284AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A5AB0-21C2-4500-A0F6-95A5D7E7737D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{92300AA5-3D24-4A9D-B4E7-A727E2CE7C63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{92300AA5-3D24-4A9D-B4E7-A727E2CE7C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
   <si>
     <t>Camera 1</t>
   </si>
@@ -50,18 +51,9 @@
     <t>EDJ FK06 2000</t>
   </si>
   <si>
-    <t>Forkant</t>
-  </si>
-  <si>
-    <t>BDX kasse, Sidekarm, sidestykke, underkarm</t>
-  </si>
-  <si>
     <t>EDJ MK04 0000</t>
   </si>
   <si>
-    <t>Sidekarm, sidestykke, underkarm</t>
-  </si>
-  <si>
     <t>EDJ MK06 0000</t>
   </si>
   <si>
@@ -92,7 +84,157 @@
     <t>EDJ UK08 0000</t>
   </si>
   <si>
-    <t>Skotrende,Manual,Skruepose</t>
+    <t>EZ CK02 1000</t>
+  </si>
+  <si>
+    <t>EZ CK04 1000</t>
+  </si>
+  <si>
+    <t>EZ FK04 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>EZ FK06 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>EZ MK06 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>EZ PK06 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>EZ PK08 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>EZ SK08 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>EDW FK06 0500</t>
+  </si>
+  <si>
+    <t>EDW MK06 0500</t>
+  </si>
+  <si>
+    <t>EDW MK06 2000</t>
+  </si>
+  <si>
+    <t>EDW MK08 0500</t>
+  </si>
+  <si>
+    <t>EDW MK08 2000</t>
+  </si>
+  <si>
+    <t>EDW MK12 2000</t>
+  </si>
+  <si>
+    <t>EDJ CK04 2500</t>
+  </si>
+  <si>
+    <t>Skotrende</t>
+  </si>
+  <si>
+    <t>Forkant, Metal stykke</t>
+  </si>
+  <si>
+    <t>EDJ CK02 0000</t>
+  </si>
+  <si>
+    <t>EDJ CK04 0000</t>
+  </si>
+  <si>
+    <t>EDJ FK06 0000</t>
+  </si>
+  <si>
+    <t>EDJ PK08 0000</t>
+  </si>
+  <si>
+    <t>EDJ SK08 0000</t>
+  </si>
+  <si>
+    <t>EDW PK08 2000</t>
+  </si>
+  <si>
+    <t>EDW PK10 0000</t>
+  </si>
+  <si>
+    <t>EDW SK08 2000</t>
+  </si>
+  <si>
+    <t>EDW PK19 2000</t>
+  </si>
+  <si>
+    <t>EDW PK19 0000****</t>
+  </si>
+  <si>
+    <t>EKT 0003</t>
+  </si>
+  <si>
+    <t>Underkarm</t>
+  </si>
+  <si>
+    <t>EZ MK08 1000***skal tjekkes</t>
+  </si>
+  <si>
+    <t>Forkant,Manual,Skruepose</t>
+  </si>
+  <si>
+    <t>BDX kasse,Sidekarm,Sidestykke,Underkarm</t>
+  </si>
+  <si>
+    <t>Sidekarm,Sidestykke,Underkarm</t>
+  </si>
+  <si>
+    <t>Forkant,Manual,Skruepose,Metal stykke</t>
+  </si>
+  <si>
+    <t>Sidestykke,Underkarm</t>
+  </si>
+  <si>
+    <t>Sidestykke,Sidestykke,Sidestykke</t>
+  </si>
+  <si>
+    <t>EDT CK02 0000</t>
+  </si>
+  <si>
+    <t>EDT CK04 0000</t>
+  </si>
+  <si>
+    <t>EDT FK06 0000</t>
+  </si>
+  <si>
+    <t>EDT MK06 2000</t>
+  </si>
+  <si>
+    <t>EDT MK08 2000</t>
+  </si>
+  <si>
+    <t>EDT MK04 0000</t>
+  </si>
+  <si>
+    <t>EDT MK06 0000</t>
+  </si>
+  <si>
+    <t>EDT MK08 0000</t>
+  </si>
+  <si>
+    <t>EDT MK10 0000</t>
+  </si>
+  <si>
+    <t>EDT PK08 0000</t>
+  </si>
+  <si>
+    <t>EDT SK08 0000</t>
+  </si>
+  <si>
+    <t>Sidestykke,Sidekarm,Skumside</t>
+  </si>
+  <si>
+    <t>Skruepose,Fugebånd,Manual,Kappen</t>
+  </si>
+  <si>
+    <t>Skruepose,Manual,Kappen</t>
+  </si>
+  <si>
+    <t>Kappen,Underkarm,Skotrende,Skumkarm</t>
   </si>
 </sst>
 </file>
@@ -136,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,7 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -164,7 +305,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,21 +601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C24E3C6-F79D-4F30-8C6F-2F9DD08651BF}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -488,204 +629,705 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Varationmap.xlsx
+++ b/Varationmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Pre-Thesis VELUX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A5AB0-21C2-4500-A0F6-95A5D7E7737D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A837A-B002-4D55-951D-457C3E1F9E46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{92300AA5-3D24-4A9D-B4E7-A727E2CE7C63}"/>
   </bookViews>
@@ -84,27 +84,6 @@
     <t>EDJ UK08 0000</t>
   </si>
   <si>
-    <t>EZ CK02 1000</t>
-  </si>
-  <si>
-    <t>EZ CK04 1000</t>
-  </si>
-  <si>
-    <t>EZ FK04 1000***skal tjekkes</t>
-  </si>
-  <si>
-    <t>EZ FK06 1000***skal tjekkes</t>
-  </si>
-  <si>
-    <t>EZ MK06 1000***skal tjekkes</t>
-  </si>
-  <si>
-    <t>EZ PK06 1000***skal tjekkes</t>
-  </si>
-  <si>
-    <t>EZ PK08 1000***skal tjekkes</t>
-  </si>
-  <si>
     <t>EZ SK08 1000***skal tjekkes</t>
   </si>
   <si>
@@ -132,9 +111,6 @@
     <t>Skotrende</t>
   </si>
   <si>
-    <t>Forkant, Metal stykke</t>
-  </si>
-  <si>
     <t>EDJ CK02 0000</t>
   </si>
   <si>
@@ -171,9 +147,6 @@
     <t>Underkarm</t>
   </si>
   <si>
-    <t>EZ MK08 1000***skal tjekkes</t>
-  </si>
-  <si>
     <t>Forkant,Manual,Skruepose</t>
   </si>
   <si>
@@ -228,13 +201,40 @@
     <t>Sidestykke,Sidekarm,Skumside</t>
   </si>
   <si>
-    <t>Skruepose,Fugebånd,Manual,Kappen</t>
-  </si>
-  <si>
     <t>Skruepose,Manual,Kappen</t>
   </si>
   <si>
     <t>Kappen,Underkarm,Skotrende,Skumkarm</t>
+  </si>
+  <si>
+    <t>EZ CK02 1000+</t>
+  </si>
+  <si>
+    <t>EZ CK04 1000+</t>
+  </si>
+  <si>
+    <t>EZ FK04 1000***skal tjekkes+</t>
+  </si>
+  <si>
+    <t>EZ FK06 1000***skal tjekkes+</t>
+  </si>
+  <si>
+    <t>EZ MK06 1000***skal tjekkes+</t>
+  </si>
+  <si>
+    <t>EZ MK08 1000***skal tjekkes+</t>
+  </si>
+  <si>
+    <t>EZ PK06 1000***skal tjekkes+</t>
+  </si>
+  <si>
+    <t>EZ PK08 1000***skal tjekkes+</t>
+  </si>
+  <si>
+    <t>Skruepose,Fugebaend,Manual,Kappen</t>
+  </si>
+  <si>
+    <t>Forkant,Metal stykke</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C24E3C6-F79D-4F30-8C6F-2F9DD08651BF}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,27 +634,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -676,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -704,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -718,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -732,27 +732,27 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,13 +760,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -774,13 +774,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -788,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -802,27 +802,27 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -830,503 +830,503 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
